--- a/images/20220127/运维生命周期.xlsx
+++ b/images/20220127/运维生命周期.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="运维阶段" sheetId="2" r:id="rId1"/>
@@ -1915,7 +1915,236 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>语义聚合主要是提炼数字语义，如拍搜超预算100万是什么原因、机器环比增加200万是什么原因</t>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei'zhu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标: 推动各层的运维界面打平。运维界面包括接口、UI、产品、功能等</t>
+    <rPh sb="0" eb="1">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ge'ceng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yun'wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>da'ping</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yun'wei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bao'kuo</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专有云</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'you'yun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合云</t>
+    <rPh sb="0" eb="1">
+      <t>hun'he'yun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私有云</t>
+    <rPh sb="0" eb="1">
+      <t>si'you'yun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公有云</t>
+    <rPh sb="0" eb="1">
+      <t>gong'you'yun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数</t>
+    <rPh sb="0" eb="1">
+      <t>han'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器</t>
+    <rPh sb="0" eb="1">
+      <t>rong'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚机</t>
+    <rPh sb="0" eb="1">
+      <t>xu'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理机</t>
+    <rPh sb="0" eb="1">
+      <t>wu'li'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源层</t>
+    <rPh sb="0" eb="1">
+      <t>zi'yuan'ceng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grafana</t>
+  </si>
+  <si>
+    <t>mcm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k8s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>terraform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IaaS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>odp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kafka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcache</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>telegraf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stored</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ob</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open sql</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaaS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自研</t>
+    <rPh sb="0" eb="1">
+      <t>zi'yan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方</t>
+    <rPh sb="0" eb="1">
+      <t>di'san'fang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开源托管</t>
+    <rPh sb="0" eb="1">
+      <t>kai'yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tuo'guan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准协议</t>
+    <rPh sb="0" eb="1">
+      <t>biao'zhun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xie'yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语义聚合主要是提炼数字语义，如拍搜超预算100万是什么原因、机器环比增加200万是什么原因、定价误差300万是什么原因</t>
     <rPh sb="0" eb="1">
       <t>yu'yi</t>
     </rPh>
@@ -1973,253 +2202,60 @@
     <rPh sb="43" eb="44">
       <t>yuan'yin</t>
     </rPh>
+    <rPh sb="46" eb="47">
+      <t>ding'jia</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>wu'cha</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>shi'shen'me</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>yuan'yin</t>
+    </rPh>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <rPh sb="0" eb="1">
-      <t>bei'zhu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>约束: 云账单缺少技术性规范，短期人工预处理无法消除，长期随着云厂商能力迭代、会逐步收敛
-约束: Excel是平台能力的必要补充，因为人工修数、取数、离线做账的需求无法消除，也因为BI平台做不到全维度组合分析。
+    <t>约束: 云账单缺少技术性规范，短期人工预处理无法消除，长期随着云厂商能力迭代或三方厂商介入、会逐步收敛
+约束: Excel是平台能力的必要补充，因为人工取数、做账、修数的需求无法消除，也因为BI平台做不到全维度灵活组合。
          把Excel当做平台能力的一部分，避免技术洁癖
-认知: Excel是最灵活的数字处理工具，你终将从Excel中来、到Excel中去</t>
-    <rPh sb="46" eb="47">
+认知: Excel是最灵活的数字处理工具，BI做到最好也就是算力强化、但功能弱化的Excel。你终将从Excel中来、到Excel中去</t>
+    <rPh sb="38" eb="39">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>san'fang</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>chang'shang</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>jie'ru</t>
+    </rPh>
+    <rPh sb="53" eb="54">
       <t>yue'shu</t>
     </rPh>
-    <rPh sb="88" eb="89">
+    <rPh sb="77" eb="78">
+      <t>qu'shu</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>zuo'zhang</t>
+    </rPh>
+    <rPh sb="93" eb="94">
       <t>ye'yin'wei</t>
     </rPh>
-    <rPh sb="135" eb="136">
+    <rPh sb="106" eb="107">
+      <t>ling'huo</t>
+    </rPh>
+    <rPh sb="140" eb="141">
       <t>ji'shu'ren</t>
     </rPh>
-    <rPh sb="141" eb="142">
+    <rPh sb="146" eb="147">
       <t>ren'zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标: 推动各层的运维界面打平。运维界面包括接口、UI、产品、功能等</t>
-    <rPh sb="0" eb="1">
-      <t>mu'biao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tui'dong</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ge'ceng</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yun'wei</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>jie'mian</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>da'ping</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>yun'wei</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>jie'mian</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>bao'kuo</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>jie'kou</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>chan'pin</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>gong'neng</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>deng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>专有云</t>
-    <rPh sb="0" eb="1">
-      <t>zhuan'you'yun</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>混合云</t>
-    <rPh sb="0" eb="1">
-      <t>hun'he'yun</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>私有云</t>
-    <rPh sb="0" eb="1">
-      <t>si'you'yun</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公有云</t>
-    <rPh sb="0" eb="1">
-      <t>gong'you'yun</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数</t>
-    <rPh sb="0" eb="1">
-      <t>han'shu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>容器</t>
-    <rPh sb="0" eb="1">
-      <t>rong'qi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚机</t>
-    <rPh sb="0" eb="1">
-      <t>xu'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理机</t>
-    <rPh sb="0" eb="1">
-      <t>wu'li'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源层</t>
-    <rPh sb="0" eb="1">
-      <t>zi'yuan'ceng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>grafana</t>
-  </si>
-  <si>
-    <t>mcm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>k8s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>terraform</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IaaS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>odp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>kafka</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rmq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tcache</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>redis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>telegraf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stored</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ob</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>open sql</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sec</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SaaS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自研</t>
-    <rPh sb="0" eb="1">
-      <t>zi'yan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三方</t>
-    <rPh sb="0" eb="1">
-      <t>di'san'fang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开源托管</t>
-    <rPh sb="0" eb="1">
-      <t>kai'yuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tuo'guan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准协议</t>
-    <rPh sb="0" eb="1">
-      <t>biao'zhun</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xie'yi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5231,7 +5267,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4345215" y="2041071"/>
+          <a:off x="4299858" y="2041071"/>
           <a:ext cx="595035" cy="231282"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5283,7 +5319,7 @@
               <a:ea typeface="DengXian" charset="-122"/>
               <a:cs typeface=""/>
             </a:rPr>
-            <a:t>离线做账</a:t>
+            <a:t>人工做账</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6594,33 +6630,33 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="54" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -6628,7 +6664,7 @@
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
       <c r="E6" s="53" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F6" s="53"/>
     </row>
@@ -6637,114 +6673,114 @@
         <v>66</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E10" s="51"/>
       <c r="F10" s="51" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E11" s="51"/>
       <c r="F11" s="51"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="50" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
       <c r="D14" s="49" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6757,7 +6793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -9874,8 +9910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10229,7 +10265,7 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
       <c r="B21" s="69" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="C21" s="70"/>
       <c r="D21" s="70"/>
@@ -10309,7 +10345,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -10325,7 +10361,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="43"/>
       <c r="B29" s="41" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/images/20220127/运维生命周期.xlsx
+++ b/images/20220127/运维生命周期.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="运维阶段" sheetId="2" r:id="rId1"/>
@@ -6295,8 +6295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6794,7 +6794,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9910,7 +9910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B21" sqref="B21:K25"/>
     </sheetView>
   </sheetViews>

--- a/images/20220127/运维生命周期.xlsx
+++ b/images/20220127/运维生命周期.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="运维阶段" sheetId="2" r:id="rId1"/>
     <sheet name="运维发展史" sheetId="3" r:id="rId2"/>
     <sheet name="运维架构演进" sheetId="8" r:id="rId3"/>
-    <sheet name="资源生命周期" sheetId="1" r:id="rId4"/>
-    <sheet name="应用生命周期" sheetId="5" r:id="rId5"/>
-    <sheet name="运营" sheetId="4" r:id="rId6"/>
-    <sheet name="交付场景" sheetId="6" r:id="rId7"/>
+    <sheet name="资源生命周期-废弃" sheetId="1" state="hidden" r:id="rId4"/>
+    <sheet name="应用生命周期-废弃" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="交付场景" sheetId="6" r:id="rId6"/>
+    <sheet name="交付场景-平台" sheetId="10" r:id="rId7"/>
     <sheet name="对账场景" sheetId="7" r:id="rId8"/>
+    <sheet name="横向运营" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="342">
   <si>
     <t>使用频次</t>
   </si>
@@ -1144,232 +1145,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>监</t>
-    <rPh sb="0" eb="1">
-      <t>jian'kog</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>变更</t>
-    <rPh sb="0" eb="1">
-      <t>bian'geng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准化治理</t>
-    <rPh sb="0" eb="1">
-      <t>biao'zhun'hua</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zhi'li</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警处理</t>
-    <rPh sb="0" eb="1">
-      <t>bao'jing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chu'li</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题排查</t>
-    <rPh sb="0" eb="1">
-      <t>wen'ti</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pai'cha</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>空闲率</t>
-    <rPh sb="0" eb="1">
-      <t>kong'xian'lv</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交付质量</t>
-    <rPh sb="0" eb="1">
-      <t>jiao'fu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi'liang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本运营</t>
-    <rPh sb="0" eb="1">
-      <t>cheng'ben</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yun'ying</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动销毁</t>
-    <rPh sb="0" eb="1">
-      <t>zi'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiao'hui</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKU控制</t>
-    <rPh sb="3" eb="4">
-      <t>kong'zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>容量度量</t>
-    <rPh sb="0" eb="1">
-      <t>rong'liang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>du'liang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用量度量</t>
-    <rPh sb="0" eb="1">
-      <t>yong'liang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>du'liang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本度量</t>
-    <rPh sb="0" eb="1">
-      <t>cheng'be</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>du'liang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩缩容</t>
-    <rPh sb="0" eb="1">
-      <t>kuo'suo'rog</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预案自动化</t>
-    <rPh sb="0" eb="1">
-      <t>yu'an</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zi'dong'hua</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码管理</t>
-    <rPh sb="0" eb="1">
-      <t>mi'ma</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>guan'li</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定</t>
-    <rPh sb="0" eb="1">
-      <t>wen'ding</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本</t>
-    <rPh sb="0" eb="1">
-      <t>cheng'ben</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>效率</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'lv</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>安全</t>
     <rPh sb="0" eb="1">
       <t>an'quan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>监控巡检</t>
-    <rPh sb="0" eb="1">
-      <t>jian'kong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xun'jian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预案演练</t>
-    <rPh sb="0" eb="1">
-      <t>yu'an</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yan'lian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QoS/ACL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管(OP亲自操作)</t>
-    <rPh sb="0" eb="1">
-      <t>guan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>qin'zi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>cao'zuo</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控(OP控制其它人操作)</t>
-    <rPh sb="0" eb="1">
-      <t>kong'zhi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>kong'zhi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>qi'ta</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ren'cao'zuo</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1610,27 +1388,6 @@
     <t>③编排</t>
     <rPh sb="1" eb="2">
       <t>bian'pai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>④审批</t>
-    <rPh sb="1" eb="2">
-      <t>shen'pi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>⑤执行</t>
-    <rPh sb="1" eb="2">
-      <t>zhi'xing</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>⑥检查</t>
-    <rPh sb="1" eb="2">
-      <t>jian'cha</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2259,12 +2016,581 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>监控</t>
+    <rPh sb="0" eb="1">
+      <t>jian'kong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属</t>
+    <rPh sb="0" eb="1">
+      <t>gui'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计费</t>
+    <rPh sb="0" eb="1">
+      <t>ji'fei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云服务</t>
+    <rPh sb="0" eb="1">
+      <t>yun'fu'wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件</t>
+    <rPh sb="0" eb="1">
+      <t>zu'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用</t>
+    <rPh sb="0" eb="1">
+      <t>ying'yog</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RocketMQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kafka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关</t>
+    <rPh sb="0" eb="1">
+      <t>wang'guan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoreDNS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <rPh sb="0" eb="1">
+      <t>gong'ju</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价: 天级单价缺失(完整性)
+单价: 月级账单核对(正确性)</t>
+    <rPh sb="0" eb="1">
+      <t>dan'jia</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>que'shi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhang'dan</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>he'dui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签: 集群归属缺失(完整性)</t>
+    <rPh sb="0" eb="1">
+      <t>biao'qian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'qun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gui'shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>que'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wan'zheng'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算: 天级预算对比趋势缺失(完整性)
+分摊: 天级分摊趋势缺失(完整性)
+对账: Q级代金券核对(正确性)</t>
+    <rPh sb="0" eb="1">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tian'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dui'bi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qu'shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>que'shi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fen'tan</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>tian'ji</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>fen'tan</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>qu'shi</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>dui'zhang</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>dai'jin'quan</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>he'dui</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>zheng'que'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例: opbuffer、未关联实例挂集群(完整性)
+集群: 未关联集群挂预单(完整性)</t>
+    <rPh sb="0" eb="1">
+      <t>shi'li</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi'li</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gua</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ji'qun</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ji'qun</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>guan'lian</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ji'qun</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>gua</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>yu'dan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名: 未关联域名挂预单(完整性)</t>
+    <rPh sb="0" eb="1">
+      <t>yu'ming</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yu'ming</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIP: 未关联EIP挂预单(完整性)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶: 未关联桶挂预单(完整性)</t>
+    <rPh sb="0" eb="1">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP: 未关联IP挂预单(完整性)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价: 计费模式核对(正确性)</t>
+    <rPh sb="0" eb="1">
+      <t>dan'jia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'fei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mo'shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>he'dui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格: 规格核对(正确性)</t>
+    <rPh sb="0" eb="1">
+      <t>gui'ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gui'ge</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he'dui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zheng'que'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜像</t>
+    <rPh sb="0" eb="1">
+      <t>jing'xiang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产</t>
+    <rPh sb="0" eb="1">
+      <t>zi'chan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <rPh sb="0" eb="1">
+      <t>dai'ma</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属: 跨预单Git项目(正确性)</t>
+    <rPh sb="0" eb="1">
+      <t>gui'shu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhegn'que'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界: 非法IP解析下线</t>
+    <rPh sb="0" eb="1">
+      <t>bian'jie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fei'fa</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie'xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限: 跨预单部署Git代码</t>
+    <rPh sb="0" eb="1">
+      <t>quan'xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu'dan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu'shu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dai'ma</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>opoffline、空闲DCC、无主开发机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZNS: 空白ZNS下线</t>
+    <rPh sb="5" eb="6">
+      <t>kong'bai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xia'xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行</t>
+    <rPh sb="0" eb="1">
+      <t>yun'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本(横向)</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营(横向)</t>
+    <rPh sb="0" eb="1">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>heng'xiang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审计: 周级新增度量&amp;核对</t>
+    <rPh sb="8" eb="9">
+      <t>du'liang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治理: 空闲资源默认下线</t>
+    <rPh sb="8" eb="9">
+      <t>mo'ren</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务</t>
+    <rPh sb="0" eb="1">
+      <t>fu'wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑤调度执行</t>
+    <rPh sb="1" eb="2">
+      <t>diao'du</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>④编排审批</t>
+    <rPh sb="1" eb="2">
+      <t>bian'pai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shen'pi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编排</t>
+    <rPh sb="0" eb="1">
+      <t>bian'pai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'xing'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度</t>
+    <rPh sb="0" eb="1">
+      <t>diao'du</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器</t>
+    <rPh sb="0" eb="1">
+      <t>ji'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K8S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令通道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云管控</t>
+    <rPh sb="0" eb="1">
+      <t>duo'yun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'kong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devops</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云引擎</t>
+    <rPh sb="0" eb="1">
+      <t>duo'yun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'qing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单</t>
+    <rPh sb="0" eb="1">
+      <t>gong'dan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单后端</t>
+    <rPh sb="0" eb="1">
+      <t>gong'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hou'dua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业平台</t>
+    <rPh sb="0" eb="1">
+      <t>zuo'ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping'tai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑥结果检查</t>
+    <rPh sb="1" eb="2">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jian'cha</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更/交付-平台现状</t>
+    <rPh sb="0" eb="1">
+      <t>bian'geng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiao'fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ping'tai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian'zhuang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中控</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'kong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用</t>
+    <rPh sb="0" eb="1">
+      <t>ying'yong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Odin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2469,8 +2795,41 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="2"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2561,6 +2920,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -2623,7 +2988,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="145">
+  <cellStyleXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2769,8 +3134,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2798,7 +3175,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2866,6 +3242,46 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2914,8 +3330,17 @@
     <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="145">
+  <cellStyles count="157">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -2989,6 +3414,12 @@
     <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3061,6 +3492,12 @@
     <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3500,7 +3937,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="805349" cy="248594"/>
+    <xdr:ext cx="689932" cy="248594"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="文本框 18"/>
@@ -3508,68 +3945,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1244600" y="1282700"/>
-          <a:ext cx="805349" cy="248594"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>工作流</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>声明</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="415498" cy="248594"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="文本框 19"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1270000" y="2046514"/>
-          <a:ext cx="415498" cy="248594"/>
+          <a:off x="1244600" y="1460500"/>
+          <a:ext cx="689932" cy="248594"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3599,6 +3976,66 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
             <a:t>工单</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>声明</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="530723" cy="248594"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="文本框 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="2046514"/>
+          <a:ext cx="530723" cy="248594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>审批流</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3778,12 +4215,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>79829</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542470</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="697627" cy="231282"/>
+    <xdr:ext cx="945259" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="61" name="文本框 60"/>
@@ -3791,8 +4228,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2991758" y="2819400"/>
-          <a:ext cx="697627" cy="231282"/>
+          <a:off x="2882899" y="2819400"/>
+          <a:ext cx="945259" cy="231282"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3819,6 +4256,22 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>调度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
               <a:solidFill>
@@ -4258,16 +4711,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>110671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>698501</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>110671</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4276,7 +4729,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6591300" y="1117600"/>
+          <a:off x="4744358" y="1308100"/>
           <a:ext cx="571500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4308,10 +4761,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>34471</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="812145" cy="231282"/>
     <xdr:sp macro="" textlink="">
@@ -4321,7 +4774,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6477000" y="838200"/>
+          <a:off x="4630058" y="1032328"/>
           <a:ext cx="812145" cy="231282"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4365,11 +4818,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>172357</xdr:colOff>
+      <xdr:colOff>217714</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>29029</xdr:rowOff>
+      <xdr:rowOff>47172</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="492443" cy="231282"/>
+    <xdr:ext cx="415498" cy="196592"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="72" name="文本框 71"/>
@@ -4377,8 +4830,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5615214" y="1625600"/>
-          <a:ext cx="492443" cy="231282"/>
+          <a:off x="5660571" y="1643743"/>
+          <a:ext cx="415498" cy="196592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4406,7 +4859,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
               <a:solidFill>
                 <a:schemeClr val="bg2">
                   <a:lumMod val="75000"/>
@@ -4420,10 +4873,1018 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>442685</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>48985</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="646331" cy="248594"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="文本框 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1268185" y="2643414"/>
+          <a:ext cx="646331" cy="248594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>调度执行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>440870</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>56243</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="646331" cy="248594"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="文本框 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266370" y="3249386"/>
+          <a:ext cx="646331" cy="248594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>规则引擎</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>172358</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="486223" cy="196592"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="文本框 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5615215" y="1043215"/>
+          <a:ext cx="486223" cy="196592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PlayBook</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>116114</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>687614</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96158</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直线箭头连接符 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4733471" y="2491015"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>90714</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19957</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="文本框 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4708071" y="2215243"/>
+          <a:ext cx="595035" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>审批转移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>172359</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="300852"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="文本框 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5615216" y="2122715"/>
+          <a:ext cx="492443" cy="300852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则引擎</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="600" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>辅助决策</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="300852"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="文本框 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7139214" y="2131785"/>
+          <a:ext cx="492443" cy="300852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则引擎</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="600" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自动决策</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="300852"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="文本框 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7148286" y="3329214"/>
+          <a:ext cx="492443" cy="300852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则引擎</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="600" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自动决策</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>199572</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="300852"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="文本框 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3937001" y="2721429"/>
+          <a:ext cx="492443" cy="300852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>调度引擎</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="600" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>执行通道</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>97762</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>627639</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直线箭头连接符 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2320262" y="1723571"/>
+          <a:ext cx="529877" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>163605</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>693482</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直线箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4037105" y="1724212"/>
+          <a:ext cx="529877" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>731583</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88153</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直线箭头连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5726206" y="1713753"/>
+          <a:ext cx="529877" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>32125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88902</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="611321" cy="196592"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2254625" y="1511302"/>
+          <a:ext cx="611321" cy="196592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>编排审批</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>149413</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="606705" cy="196592"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文本框 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5673913" y="1503082"/>
+          <a:ext cx="606705" cy="196592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>结果检查</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>195622</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>131591</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="196592"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5720122" y="1757191"/>
+          <a:ext cx="492443" cy="196592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则引擎</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>263072</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="331822" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文本框 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4962072" y="1224643"/>
+          <a:ext cx="331822" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IaC</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6030,6 +7491,88 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9829800" cy="685800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12700" y="12700"/>
+          <a:ext cx="9829800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>运营工作的目标是，维持运维对象的同构。分解一下，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>① 通过度量、治理，消除非标现状，此为初级阶段</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>② 从非标现状中抽象共性，推动交付平台、服务框架的完善，杜绝增量，此为高级阶段</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -6295,7 +7838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -6342,7 +7885,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -6351,7 +7894,7 @@
       <c r="D4" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="68" t="s">
         <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -6359,31 +7902,31 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="59"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="56"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="60"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="57"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="71" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -6392,39 +7935,39 @@
       <c r="D7" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="68" t="s">
         <v>117</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="59"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="56"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="59"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="57"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="60"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="16" t="s">
         <v>44</v>
       </c>
@@ -6439,7 +7982,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="71" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -6448,7 +7991,7 @@
       <c r="D11" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="68" t="s">
         <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -6456,14 +7999,14 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="60"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="57"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="7" t="s">
         <v>40</v>
       </c>
@@ -6630,157 +8173,157 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>282</v>
+      <c r="B5" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53" t="s">
-        <v>297</v>
-      </c>
-      <c r="F6" s="53"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" s="52"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>294</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>293</v>
+      <c r="C8" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
-      <c r="C9" s="51" t="s">
-        <v>292</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>289</v>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51" t="s">
-        <v>287</v>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>281</v>
+      <c r="B13" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>275</v>
+      <c r="B16" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="48"/>
-      <c r="C17" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>271</v>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -6794,7 +8337,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A5" sqref="A5:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6816,64 +8359,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="M1" s="64" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="M1" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="63" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
       <c r="F3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="13" t="s">
         <v>106</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="M3" s="63" t="s">
+      <c r="M3" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
       <c r="P3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="Q3" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
       <c r="U3" s="13" t="s">
         <v>106</v>
       </c>
@@ -8885,7 +10428,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8902,254 +10445,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>244</v>
+      <c r="A1" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
-        <v>158</v>
+      <c r="A2" s="78" t="s">
+        <v>133</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="22" t="s">
-        <v>162</v>
+      <c r="A3" s="78"/>
+      <c r="B3" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>165</v>
+        <v>139</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>249</v>
+        <v>143</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>221</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="22"/>
+        <v>149</v>
+      </c>
+      <c r="F6" s="21"/>
       <c r="G6" s="4" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>182</v>
+        <v>156</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="65" t="s">
-        <v>183</v>
+      <c r="A10" s="78" t="s">
+        <v>158</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>186</v>
+      <c r="E10" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>161</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>188</v>
+        <v>164</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="4" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>193</v>
+        <v>167</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="4" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -9157,10 +10700,10 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -9170,10 +10713,10 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -9183,10 +10726,10 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -9196,121 +10739,121 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="22" t="s">
-        <v>204</v>
+      <c r="F17" s="21" t="s">
+        <v>179</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
-        <v>205</v>
+      <c r="A18" s="78" t="s">
+        <v>180</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="4" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
-        <v>211</v>
+      <c r="A20" s="78" t="s">
+        <v>186</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="4" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -9318,17 +10861,17 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -9346,131 +10889,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9484,408 +10906,408 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="29" t="s">
+      <c r="A2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="25"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="K4" s="25"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="25"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="K7" s="25"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="25"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="25"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="K10" s="25"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="25"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="25"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="25"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="25"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="25"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27" t="s">
+      <c r="G16" s="26"/>
+      <c r="H16" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27" t="s">
+      <c r="I16" s="26"/>
+      <c r="J16" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="25"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="25"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="25"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="25"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="25"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="K22" s="25"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="66" t="s">
-        <v>237</v>
-      </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H27" s="1"/>
@@ -9899,6 +11321,227 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B20:B21"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="7.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="65"/>
+    <col min="5" max="5" width="10.83203125" style="65"/>
+    <col min="7" max="7" width="10.83203125" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="46"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="46"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
+      <c r="B4" s="60"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="86" t="s">
+        <v>338</v>
+      </c>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
+      <c r="B5" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="67" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+      <c r="B11" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="85" t="s">
+        <v>340</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="46"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="46"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9921,447 +11564,447 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
+      <c r="A6" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="A9" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="A12" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="32"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="A15" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="32"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="33"/>
+      <c r="A19" s="81" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="32"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="33"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="69" t="s">
-        <v>305</v>
-      </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="33"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="32"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
+      <c r="A28" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="41" t="s">
-        <v>304</v>
+      <c r="A29" s="42"/>
+      <c r="B29" s="40" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -10373,4 +12016,938 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:P43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="N6" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="O6" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="P6" s="56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>286</v>
+      </c>
+      <c r="B31" t="s">
+        <v>285</v>
+      </c>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>286</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>287</v>
+      </c>
+      <c r="B36" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>287</v>
+      </c>
+      <c r="B37" t="s">
+        <v>291</v>
+      </c>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>287</v>
+      </c>
+      <c r="B39" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>288</v>
+      </c>
+      <c r="B40" t="s">
+        <v>288</v>
+      </c>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>308</v>
+      </c>
+      <c r="B41" t="s">
+        <v>309</v>
+      </c>
+      <c r="G41" t="s">
+        <v>310</v>
+      </c>
+      <c r="L41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B42" t="s">
+        <v>316</v>
+      </c>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="G42" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="P42" s="57"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>294</v>
+      </c>
+      <c r="B43" t="s">
+        <v>317</v>
+      </c>
+      <c r="H43" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="P43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:O5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/images/20220127/运维生命周期.xlsx
+++ b/images/20220127/运维生命周期.xlsx
@@ -3282,6 +3282,12 @@
     <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3331,12 +3337,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7885,7 +7885,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="73" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -7894,7 +7894,7 @@
       <c r="D4" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="70" t="s">
         <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -7902,31 +7902,31 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="72"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="69"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="73"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="70"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="73" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -7935,39 +7935,39 @@
       <c r="D7" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="70" t="s">
         <v>117</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="72"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="69"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="72"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="70"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="73"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="16" t="s">
         <v>44</v>
       </c>
@@ -7982,7 +7982,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="73" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -7991,7 +7991,7 @@
       <c r="D11" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="70" t="s">
         <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -7999,14 +7999,14 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="73"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="70"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="7" t="s">
         <v>40</v>
       </c>
@@ -8359,64 +8359,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="M1" s="77" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="M1" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="76" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
       <c r="F3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="13" t="s">
         <v>106</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="M3" s="76" t="s">
+      <c r="M3" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
       <c r="P3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="75" t="s">
+      <c r="Q3" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
       <c r="U3" s="13" t="s">
         <v>106</v>
       </c>
@@ -10474,7 +10474,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -10495,7 +10495,7 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="78"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="21" t="s">
         <v>137</v>
       </c>
@@ -10516,7 +10516,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="78"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
@@ -10535,7 +10535,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="78"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -10552,7 +10552,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="78"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
@@ -10569,7 +10569,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="78"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -10586,7 +10586,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -10601,7 +10601,7 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="78"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -10616,7 +10616,7 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="80" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -10643,7 +10643,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="78"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="4" t="s">
         <v>211</v>
       </c>
@@ -10665,7 +10665,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="78"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="4" t="s">
         <v>169</v>
       </c>
@@ -10685,7 +10685,7 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="78"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>173</v>
@@ -10700,7 +10700,7 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="78"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
         <v>175</v>
@@ -10713,7 +10713,7 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="78"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>176</v>
@@ -10726,7 +10726,7 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="78"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>177</v>
@@ -10739,7 +10739,7 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="78"/>
+      <c r="A17" s="80"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9" t="s">
         <v>178</v>
@@ -10754,7 +10754,7 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="80" t="s">
         <v>180</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -10773,7 +10773,7 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="78"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="4" t="s">
         <v>184</v>
       </c>
@@ -10788,7 +10788,7 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="80" t="s">
         <v>186</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -10813,7 +10813,7 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="78"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="4" t="s">
         <v>193</v>
       </c>
@@ -10832,7 +10832,7 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="78"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -10847,7 +10847,7 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="78"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -10976,7 +10976,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
-      <c r="B5" s="80"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="24"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -10989,7 +10989,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
-      <c r="B6" s="80"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="24"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -11025,7 +11025,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
-      <c r="B8" s="80"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="24"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -11038,7 +11038,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
-      <c r="B9" s="80"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="24"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -11074,7 +11074,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="80"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="24"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -11087,7 +11087,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
-      <c r="B12" s="80"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="24"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -11123,7 +11123,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
-      <c r="B14" s="80"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="24"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -11136,7 +11136,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
-      <c r="B15" s="80"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="24"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -11172,7 +11172,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
-      <c r="B17" s="80"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="24"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -11185,7 +11185,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
-      <c r="B18" s="80"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="24"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -11221,7 +11221,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="24"/>
-      <c r="B20" s="80"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="24"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -11234,7 +11234,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
-      <c r="B21" s="80"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="24"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -11286,11 +11286,11 @@
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="79" t="s">
+      <c r="E24" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
@@ -11389,7 +11389,7 @@
       <c r="D4" s="46"/>
       <c r="E4" s="67"/>
       <c r="F4" s="46"/>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="69" t="s">
         <v>338</v>
       </c>
       <c r="H4" s="46"/>
@@ -11494,7 +11494,7 @@
         <v>333</v>
       </c>
       <c r="D11" s="46"/>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="68" t="s">
         <v>340</v>
       </c>
       <c r="F11" s="46"/>
@@ -11519,11 +11519,11 @@
       <c r="A13" s="46"/>
       <c r="B13" s="60"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="81" t="s">
         <v>337</v>
       </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
       <c r="G13" s="63"/>
       <c r="H13" s="46"/>
       <c r="I13" s="46"/>
@@ -11876,19 +11876,19 @@
       <c r="L18" s="32"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
       <c r="L19" s="32"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -11907,71 +11907,71 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="84" t="s">
         <v>277</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
       <c r="L21" s="32"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="46"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="46"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="46"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="46"/>
@@ -12022,7 +12022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -12044,25 +12044,25 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="55"/>
       <c r="B5" s="55"/>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="77" t="s">
         <v>315</v>
       </c>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
       <c r="P5" s="54" t="s">
         <v>106</v>
       </c>

--- a/images/20220127/运维生命周期.xlsx
+++ b/images/20220127/运维生命周期.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="运维阶段" sheetId="2" r:id="rId1"/>
@@ -17,10 +17,12 @@
     <sheet name="运维架构演进" sheetId="8" r:id="rId3"/>
     <sheet name="资源生命周期-废弃" sheetId="1" state="hidden" r:id="rId4"/>
     <sheet name="应用生命周期-废弃" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="交付场景" sheetId="6" r:id="rId6"/>
-    <sheet name="交付场景-平台" sheetId="10" r:id="rId7"/>
-    <sheet name="对账场景" sheetId="7" r:id="rId8"/>
-    <sheet name="横向运营" sheetId="9" r:id="rId9"/>
+    <sheet name="交付场景-old" sheetId="11" state="hidden" r:id="rId6"/>
+    <sheet name="交付场景" sheetId="6" r:id="rId7"/>
+    <sheet name="CICD" sheetId="12" r:id="rId8"/>
+    <sheet name="交付场景-平台" sheetId="10" r:id="rId9"/>
+    <sheet name="对账场景" sheetId="7" r:id="rId10"/>
+    <sheet name="横向运营" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="367">
   <si>
     <t>使用频次</t>
   </si>
@@ -2583,6 +2585,151 @@
   </si>
   <si>
     <t>Odin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>③编排工单</t>
+    <rPh sb="1" eb="2">
+      <t>bian'pai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'dan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑤执行审批</t>
+    <rPh sb="1" eb="2">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shen'pi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑥执行</t>
+    <rPh sb="1" eb="2">
+      <t>zhi'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑦结果检查</t>
+    <rPh sb="1" eb="2">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jian'cha</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑧需求验收</t>
+    <rPh sb="1" eb="2">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yan'shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <rPh sb="0" eb="1">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包</t>
+    <rPh sb="0" eb="1">
+      <t>da'bao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <rPh sb="0" eb="1">
+      <t>jian'cha</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Svc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义</t>
+    <rPh sb="0" eb="1">
+      <t>ding'yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ondemand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips/small/online</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitrepo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app: script</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitrepo/scripts/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布</t>
+    <rPh sb="0" eb="1">
+      <t>fa'bu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>online</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>checklist</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2829,7 +2976,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2926,6 +3073,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -2988,7 +3141,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="157">
+  <cellStyleXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3146,8 +3299,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3288,6 +3445,12 @@
     <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3339,8 +3502,21 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="157">
+  <cellStyles count="161">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -3420,6 +3596,8 @@
     <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3498,6 +3676,8 @@
     <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3553,6 +3733,1828 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>184300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直线箭头连接符 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="876300"/>
+          <a:ext cx="0" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>184300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直线箭头连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="1485900"/>
+          <a:ext cx="0" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>184300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直线箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="2095500"/>
+          <a:ext cx="0" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>184300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直线箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="2705100"/>
+          <a:ext cx="0" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>197000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直线箭头连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="3327400"/>
+          <a:ext cx="0" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>184300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直线箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="3924300"/>
+          <a:ext cx="0" cy="324000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="415498" cy="248594"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文本框 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="863600"/>
+          <a:ext cx="415498" cy="248594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>沟通</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78384</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>135224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>618384</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="弧 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2702860" flipH="1" flipV="1">
+          <a:off x="903884" y="3183224"/>
+          <a:ext cx="540000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="none" w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>471708</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="415498" cy="404854"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="471708" y="3251200"/>
+          <a:ext cx="415498" cy="404854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>终态</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>维持</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直线箭头连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="3149600"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>61684</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="697627" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文本框 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2969984" y="2870200"/>
+          <a:ext cx="697627" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>执行自动化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直线箭头连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="1930400"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直线箭头连接符 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="3759200"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文本框 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="1651000"/>
+          <a:ext cx="595035" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>编排转移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="文本框 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="3479800"/>
+          <a:ext cx="595035" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>检查转移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直线箭头连接符 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6426200" y="3759200"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="697627" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="文本框 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6375400" y="3479800"/>
+          <a:ext cx="697627" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>检查自动化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直线箭头连接符 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="2540000"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="697627" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="文本框 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350000" y="2260600"/>
+          <a:ext cx="697627" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>审批自动化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>698501</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110671</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直线箭头连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4737101" y="1329871"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34471</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="812145" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="文本框 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4622801" y="1050471"/>
+          <a:ext cx="812145" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>技术选型转移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47172</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="415498" cy="196592"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="文本框 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5653314" y="1672772"/>
+          <a:ext cx="415498" cy="196592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>模板化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>172358</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="486223" cy="196592"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="文本框 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5607958" y="1061358"/>
+          <a:ext cx="486223" cy="196592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PlayBook</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>116114</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>687614</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96158</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直线箭头连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4726214" y="2534558"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>90714</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19957</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="文本框 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4700814" y="2255157"/>
+          <a:ext cx="595035" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>审批转移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>172359</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="300852"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="文本框 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5607959" y="2159001"/>
+          <a:ext cx="492443" cy="300852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则引擎</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="600" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>辅助决策</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="300852"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="文本框 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7135585" y="2168071"/>
+          <a:ext cx="492443" cy="300852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则引擎</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="600" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自动决策</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="300852"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="文本框 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7144657" y="3387271"/>
+          <a:ext cx="492443" cy="300852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则引擎</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="600" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>辅助决策</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>199572</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="196592"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="文本框 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933372" y="2804884"/>
+          <a:ext cx="492443" cy="196592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>执行通道</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>172359</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>36284</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="196592"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="文本框 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5607959" y="2881084"/>
+          <a:ext cx="492443" cy="196592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>变更审批</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="196592"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="文本框 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7135585" y="2881085"/>
+          <a:ext cx="492443" cy="196592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自动调度</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>680357</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直线箭头连接符 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4718957" y="3138714"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3720,67 +5722,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>184300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直线箭头连接符 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1270000" y="2501900"/>
-          <a:ext cx="0" cy="324000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cap="rnd">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd w="med" len="med"/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>197000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3828,13 +5776,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>184300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3930,130 +5878,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="689932" cy="248594"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="文本框 18"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1244600" y="1460500"/>
-          <a:ext cx="689932" cy="248594"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>工单</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>声明</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="530723" cy="248594"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="文本框 19"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1270000" y="2046514"/>
-          <a:ext cx="530723" cy="248594"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>审批流</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>78384</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>135224</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>98940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>618384</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>65624</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>29340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4062,8 +5898,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="2702860" flipH="1" flipV="1">
-          <a:off x="909326" y="3123353"/>
-          <a:ext cx="529115" cy="540000"/>
+          <a:off x="909327" y="3685783"/>
+          <a:ext cx="529114" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="arc">
           <a:avLst/>
@@ -4108,8 +5944,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>471708</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="415498" cy="404854"/>
     <xdr:sp macro="" textlink="">
@@ -4119,7 +5955,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="471708" y="3193143"/>
+          <a:off x="471708" y="3773715"/>
           <a:ext cx="415498" cy="404854"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4167,13 +6003,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4215,12 +6051,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>542470</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>61684</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>34471</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="945259" cy="231282"/>
+    <xdr:ext cx="697627" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="61" name="文本框 60"/>
@@ -4228,8 +6064,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2882899" y="2819400"/>
-          <a:ext cx="945259" cy="231282"/>
+          <a:off x="2973613" y="3427185"/>
+          <a:ext cx="697627" cy="231282"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4256,22 +6092,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>调度</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
               <a:solidFill>
@@ -4339,13 +6159,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4445,7 +6265,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595035" cy="231282"/>
@@ -4501,13 +6321,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4551,7 +6371,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="697627" cy="231282"/>
@@ -4657,8 +6477,8 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="697627" cy="231282"/>
     <xdr:sp macro="" textlink="">
@@ -4668,7 +6488,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6540500" y="2057400"/>
+          <a:off x="6353629" y="2683329"/>
           <a:ext cx="697627" cy="231282"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4820,7 +6640,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>217714</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>47172</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="415498" cy="196592"/>
     <xdr:sp macro="" textlink="">
@@ -4830,7 +6650,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5660571" y="1643743"/>
+          <a:off x="5660571" y="1634672"/>
           <a:ext cx="415498" cy="196592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4867,110 +6687,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>模板化</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>442685</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>48985</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="646331" cy="248594"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="文本框 25"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1268185" y="2643414"/>
-          <a:ext cx="646331" cy="248594"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>调度执行</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>440870</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>56243</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="646331" cy="248594"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="文本框 26"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1266370" y="3249386"/>
-          <a:ext cx="646331" cy="248594"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
-            <a:t>规则引擎</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5094,66 +6810,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>90714</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19957</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="595035" cy="231282"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="文本框 29"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4708071" y="2215243"/>
-          <a:ext cx="595035" cy="231282"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>审批转移</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>172359</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="492443" cy="300852"/>
     <xdr:sp macro="" textlink="">
@@ -5163,7 +6823,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5615216" y="2122715"/>
+          <a:off x="5615216" y="2657930"/>
           <a:ext cx="492443" cy="300852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5229,8 +6889,8 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>36285</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45356</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="492443" cy="300852"/>
     <xdr:sp macro="" textlink="">
@@ -5240,7 +6900,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7139214" y="2131785"/>
+          <a:off x="7139214" y="2639785"/>
           <a:ext cx="492443" cy="300852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5306,7 +6966,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>45357</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="492443" cy="300852"/>
@@ -5372,7 +7032,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>自动决策</a:t>
+            <a:t>辅助决策</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5382,9 +7042,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>199572</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>208644</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="492443" cy="300852"/>
     <xdr:sp macro="" textlink="">
@@ -5394,7 +7054,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3937001" y="2721429"/>
+          <a:off x="3946073" y="3320142"/>
           <a:ext cx="492443" cy="300852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5456,10 +7116,703 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171599</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直线箭头连接符 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="2645227"/>
+          <a:ext cx="0" cy="320372"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>433614</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>58056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>433614</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>178857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直线箭头连接符 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1259114" y="3251199"/>
+          <a:ext cx="0" cy="320372"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112487</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直线箭头连接符 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4731657" y="3106058"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="文本框 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4706257" y="2685143"/>
+          <a:ext cx="595035" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>审批转移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105229</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直线箭头连接符 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6391728" y="3098800"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>576385</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>576385</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直线箭头连接符 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6799385" y="1230923"/>
+          <a:ext cx="0" cy="234461"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>507999</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185615</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6933052" cy="439864"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1338384" y="1826846"/>
+          <a:ext cx="6933052" cy="439864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Job</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>脚本的管理能力、维护程度通常不及</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Svc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Job</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>复用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Svc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的服务模型和代码仓库 没啥问题</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>就高</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>不就低</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Job</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Svc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>是两种工作负载、任务不同，其「测试、打包、发布、检查」应该相互独立、彼此不依赖</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>现状发布有依赖</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449385</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>185617</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="185616" cy="185614"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文本框 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6672385" y="1211386"/>
+          <a:ext cx="185616" cy="185614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5884,7 +8237,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7491,7 +9844,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -7885,7 +10238,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="75" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -7894,7 +10247,7 @@
       <c r="D4" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="72" t="s">
         <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -7902,31 +10255,31 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="74"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="71"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="75"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="72"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="75" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -7935,39 +10288,39 @@
       <c r="D7" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="72" t="s">
         <v>117</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="74"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="71"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="74"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="72"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="75"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="16" t="s">
         <v>44</v>
       </c>
@@ -7982,7 +10335,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="75" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -7991,7 +10344,7 @@
       <c r="D11" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="72" t="s">
         <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -7999,14 +10352,14 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="75"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="72"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="7" t="s">
         <v>40</v>
       </c>
@@ -8142,6 +10495,1409 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="34"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="34"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="32"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="34"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="34"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="34"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="34"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="32"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="34"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="34"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="32"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="34"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="45"/>
+      <c r="B21" s="86" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="32"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="46"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="46"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="46"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="46"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B21:K25"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:P43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="79" t="s">
+        <v>315</v>
+      </c>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="N6" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="O6" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="P6" s="56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>286</v>
+      </c>
+      <c r="B31" t="s">
+        <v>285</v>
+      </c>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>286</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>287</v>
+      </c>
+      <c r="B36" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>287</v>
+      </c>
+      <c r="B37" t="s">
+        <v>291</v>
+      </c>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>287</v>
+      </c>
+      <c r="B39" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>288</v>
+      </c>
+      <c r="B40" t="s">
+        <v>288</v>
+      </c>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>308</v>
+      </c>
+      <c r="B41" t="s">
+        <v>309</v>
+      </c>
+      <c r="G41" t="s">
+        <v>310</v>
+      </c>
+      <c r="L41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B42" t="s">
+        <v>316</v>
+      </c>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="G42" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="P42" s="57"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>294</v>
+      </c>
+      <c r="B43" t="s">
+        <v>317</v>
+      </c>
+      <c r="H43" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="P43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:O5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8359,64 +12115,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="M1" s="79" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="M1" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="78" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
       <c r="K3" s="13" t="s">
         <v>106</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="M3" s="78" t="s">
+      <c r="M3" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
       <c r="P3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="77" t="s">
+      <c r="Q3" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
       <c r="U3" s="13" t="s">
         <v>106</v>
       </c>
@@ -10474,7 +14230,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -10495,7 +14251,7 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="80"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="21" t="s">
         <v>137</v>
       </c>
@@ -10516,7 +14272,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
@@ -10535,7 +14291,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="80"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -10552,7 +14308,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="80"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
@@ -10569,7 +14325,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="80"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -10586,7 +14342,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="80"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -10601,7 +14357,7 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -10616,7 +14372,7 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="82" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -10643,7 +14399,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="80"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="4" t="s">
         <v>211</v>
       </c>
@@ -10665,7 +14421,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="80"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="4" t="s">
         <v>169</v>
       </c>
@@ -10685,7 +14441,7 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="80"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>173</v>
@@ -10700,7 +14456,7 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="80"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
         <v>175</v>
@@ -10713,7 +14469,7 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="80"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>176</v>
@@ -10726,7 +14482,7 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="80"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>177</v>
@@ -10739,7 +14495,7 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="80"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9" t="s">
         <v>178</v>
@@ -10754,7 +14510,7 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="82" t="s">
         <v>180</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -10773,7 +14529,7 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="80"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="4" t="s">
         <v>184</v>
       </c>
@@ -10788,7 +14544,7 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="82" t="s">
         <v>186</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -10813,7 +14569,7 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="80"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="4" t="s">
         <v>193</v>
       </c>
@@ -10832,7 +14588,7 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="80"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -10847,7 +14603,7 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="80"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -10891,8 +14647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10924,15 +14680,15 @@
       <c r="D2" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="I2" s="25"/>
+      <c r="I2" s="70"/>
       <c r="J2" s="28" t="s">
         <v>38</v>
       </c>
@@ -10976,7 +14732,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
-      <c r="B5" s="82"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="24"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -10989,7 +14745,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
-      <c r="B6" s="82"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="24"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -11025,7 +14781,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
-      <c r="B8" s="82"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="24"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -11038,7 +14794,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
-      <c r="B9" s="82"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="24"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -11052,7 +14808,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
       <c r="B10" s="29" t="s">
-        <v>202</v>
+        <v>342</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="26" t="s">
@@ -11074,7 +14830,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="82"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="24"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -11087,7 +14843,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
-      <c r="B12" s="82"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="24"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -11123,7 +14879,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
-      <c r="B14" s="82"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="24"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -11136,7 +14892,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
-      <c r="B15" s="82"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="24"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -11172,7 +14928,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
-      <c r="B17" s="82"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="24"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -11185,7 +14941,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
-      <c r="B18" s="82"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="24"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -11221,7 +14977,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="24"/>
-      <c r="B20" s="82"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="24"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -11234,7 +14990,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
-      <c r="B21" s="82"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="24"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -11286,11 +15042,11 @@
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="81" t="s">
+      <c r="E24" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
@@ -11329,6 +15085,651 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+      <c r="B10" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
+      <c r="B16" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="24"/>
+      <c r="B19" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="24"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="24"/>
+      <c r="B22" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="24"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="24"/>
+      <c r="B25" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="89" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="H4" s="89" t="s">
+        <v>364</v>
+      </c>
+      <c r="I4" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="J4" s="46"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="46"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="91" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>355</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>357</v>
+      </c>
+      <c r="E6" s="90" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="90" t="s">
+        <v>359</v>
+      </c>
+      <c r="G6" s="90" t="s">
+        <v>358</v>
+      </c>
+      <c r="H6" s="90" t="s">
+        <v>360</v>
+      </c>
+      <c r="I6" s="90" t="s">
+        <v>366</v>
+      </c>
+      <c r="J6" s="46"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="46"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+      <c r="B8" s="91" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>362</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>356</v>
+      </c>
+      <c r="E8" s="90" t="s">
+        <v>363</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>356</v>
+      </c>
+      <c r="G8" s="92" t="s">
+        <v>358</v>
+      </c>
+      <c r="H8" s="90" t="s">
+        <v>365</v>
+      </c>
+      <c r="I8" s="93" t="s">
+        <v>356</v>
+      </c>
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -11519,11 +15920,11 @@
       <c r="A13" s="46"/>
       <c r="B13" s="60"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="63"/>
       <c r="H13" s="46"/>
       <c r="I13" s="46"/>
@@ -11547,1407 +15948,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:K25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
-        <v>240</v>
-      </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="32"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="32"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="32"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
-      <c r="B29" s="40" t="s">
-        <v>276</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B21:K25"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:P43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="77" t="s">
-        <v>315</v>
-      </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>289</v>
-      </c>
-      <c r="G6" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="H6" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="J6" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="K6" s="56" t="s">
-        <v>284</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="M6" s="56" t="s">
-        <v>321</v>
-      </c>
-      <c r="N6" s="56" t="s">
-        <v>320</v>
-      </c>
-      <c r="O6" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="P6" s="56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58" t="s">
-        <v>299</v>
-      </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57" t="s">
-        <v>301</v>
-      </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57" t="s">
-        <v>300</v>
-      </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57" t="s">
-        <v>303</v>
-      </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>304</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57" t="s">
-        <v>300</v>
-      </c>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>286</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>286</v>
-      </c>
-      <c r="B31" t="s">
-        <v>285</v>
-      </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>286</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>286</v>
-      </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>286</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>286</v>
-      </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>287</v>
-      </c>
-      <c r="B36" t="s">
-        <v>290</v>
-      </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>287</v>
-      </c>
-      <c r="B37" t="s">
-        <v>291</v>
-      </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>287</v>
-      </c>
-      <c r="B38" t="s">
-        <v>292</v>
-      </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>287</v>
-      </c>
-      <c r="B39" t="s">
-        <v>293</v>
-      </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>288</v>
-      </c>
-      <c r="B40" t="s">
-        <v>288</v>
-      </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>308</v>
-      </c>
-      <c r="B41" t="s">
-        <v>309</v>
-      </c>
-      <c r="G41" t="s">
-        <v>310</v>
-      </c>
-      <c r="L41" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>294</v>
-      </c>
-      <c r="B42" t="s">
-        <v>316</v>
-      </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="G42" s="58" t="s">
-        <v>297</v>
-      </c>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="P42" s="57"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>294</v>
-      </c>
-      <c r="B43" t="s">
-        <v>317</v>
-      </c>
-      <c r="H43" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="P43" t="s">
-        <v>319</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:O5"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>